--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E097B8-7214-4F7A-8D43-3BD88751F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0CF3C-4F49-47CB-B8FC-F4B6B48DFA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0D4CA07C-D14C-4C68-B4FC-7AAF55D8D7BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D4CA07C-D14C-4C68-B4FC-7AAF55D8D7BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>level_id</t>
   </si>
   <si>
-    <t>adminyunika</t>
-  </si>
-  <si>
     <t>Yunika Antika</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>putri123</t>
+  </si>
+  <si>
+    <t>adminyunikap</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,13 +466,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
